--- a/biology/Histoire de la zoologie et de la botanique/Franz_Michael_Regenfuss/Franz_Michael_Regenfuss.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Franz_Michael_Regenfuss/Franz_Michael_Regenfuss.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Franz Michael Regenfuss est un artiste, un graveur et un naturaliste allemand, né en 1712 et mort en 1780.
 Il annonce dès 1748 la parution imminente d’un livre richement illustré sur les mollusques et les crustacés. Mais Regenfuss n’est pas satisfait du texte fourni par Friedrich Christian Lesser (1692-1754) aussi décide-t-il d’ajourner la parution.
